--- a/data/Plan.xlsx
+++ b/data/Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtt/Projects/VMIX-Helper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D9BBA3-0A8E-354D-8E38-F521CC9674DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB759EE-92B4-DB42-86C3-CA83CAAFB688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="254">
   <si>
     <t>key</t>
   </si>
@@ -1647,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -3050,10 +3050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4897,6 +4897,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
